--- a/public/Format_Dosen.xlsx
+++ b/public/Format_Dosen.xlsx
@@ -23,8 +23,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>mybir</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>HANYA BOLEH DIISI MENGGUNAKAN
+- dosen</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>nip</t>
   </si>
@@ -122,26 +147,35 @@
     <t>Jl. Hahaha no.1, Kupang, NTT.</t>
   </si>
   <si>
-    <t>lukas@gmail.com</t>
-  </si>
-  <si>
-    <t>vera@gmail.com</t>
-  </si>
-  <si>
-    <t>michael@gmail.com</t>
-  </si>
-  <si>
-    <t>yuda@gmail.com</t>
-  </si>
-  <si>
-    <t>ronald@gmail.com</t>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sebagai</t>
+  </si>
+  <si>
+    <t>dosen</t>
+  </si>
+  <si>
+    <t>tesdosen1@gmail.com</t>
+  </si>
+  <si>
+    <t>tesdosen2@gmail.com</t>
+  </si>
+  <si>
+    <t>tesdosen3@gmail.com</t>
+  </si>
+  <si>
+    <t>tesdosen4@gmail.com</t>
+  </si>
+  <si>
+    <t>tesdosen5@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +190,21 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -172,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,33 +244,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -503,213 +581,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="22.5703125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" style="6" customWidth="1"/>
-    <col min="8" max="10" width="22.5703125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="22.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="22.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="3" customWidth="1"/>
+    <col min="8" max="10" width="22.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21" style="13" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>123456789</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>44469</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="K2" s="13">
+        <v>12345678</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>987654321</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>44454</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="K3" s="13">
+        <v>12345678</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>456123789</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44456</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="13">
+        <v>12345678</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="4">
-        <v>44456</v>
-      </c>
-      <c r="E4" s="2" t="s">
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>456789123</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44446</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="G5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="13">
+        <v>12345678</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>456789123</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="4">
-        <v>44446</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>147258369</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44509</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>147258369</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4">
-        <v>44509</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="K6" s="13">
+        <v>12345678</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -722,5 +838,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>